--- a/SampleBuoyData.xlsx
+++ b/SampleBuoyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Title</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Buoy3512</t>
+  </si>
+  <si>
+    <t>Buoy3434</t>
+  </si>
+  <si>
+    <t>Buoy5101</t>
+  </si>
+  <si>
+    <t>Buoy2703</t>
+  </si>
+  <si>
+    <t>-83.33219347</t>
+  </si>
+  <si>
+    <t>-81.387926</t>
   </si>
 </sst>
 </file>
@@ -93,9 +111,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -398,14 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
@@ -443,10 +463,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>41.7</v>
-      </c>
-      <c r="C2">
-        <v>-81.7</v>
+        <v>41.802495999999998</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D2">
         <v>193</v>
@@ -469,10 +489,10 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>41.6</v>
-      </c>
-      <c r="C3">
-        <v>-81.7</v>
+        <v>41.923237</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-82.695892000000001</v>
       </c>
       <c r="D3">
         <v>193</v>
@@ -487,6 +507,110 @@
         <v>10.4</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>41.911943999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-81.871219999999994</v>
+      </c>
+      <c r="D4">
+        <v>182</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <v>7.6</v>
+      </c>
+      <c r="G4">
+        <v>11.2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>41.871273000000002</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>181</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+      <c r="F5">
+        <v>7.32</v>
+      </c>
+      <c r="G5">
+        <v>10.9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>42.355268000000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-80.312467999999996</v>
+      </c>
+      <c r="D6">
+        <v>196</v>
+      </c>
+      <c r="E6">
+        <v>0.4</v>
+      </c>
+      <c r="F6">
+        <v>7.41</v>
+      </c>
+      <c r="G6">
+        <v>10.8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>42.755164000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-79.141233999999997</v>
+      </c>
+      <c r="D7">
+        <v>190</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+      <c r="F7">
+        <v>7.05</v>
+      </c>
+      <c r="G7">
+        <v>10.3</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -494,8 +618,13 @@
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/SampleBuoyData.xlsx
+++ b/SampleBuoyData.xlsx
@@ -1,79 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="288" yWindow="96" windowWidth="16260" windowHeight="6624"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="buoydata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Conductivity</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Buoy4327</t>
+  </si>
+  <si>
+    <t>Buoy3312</t>
+  </si>
+  <si>
+    <t>Buoy3512</t>
+  </si>
+  <si>
+    <t>Buoy3434</t>
+  </si>
+  <si>
+    <t>Buoy5101</t>
+  </si>
+  <si>
+    <t>Buoy2703</t>
+  </si>
+  <si>
+    <t>Time Read</t>
+  </si>
+  <si>
+    <t>Ph</t>
+  </si>
+  <si>
+    <t>DissolvedO2</t>
+  </si>
+  <si>
+    <t>TDS</t>
   </si>
   <si>
     <t>Temperature</t>
   </si>
   <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>DissolvedO2</t>
-  </si>
-  <si>
-    <t>LiveLink</t>
-  </si>
-  <si>
-    <t>Buoy4327</t>
-  </si>
-  <si>
-    <t>http://cloud1.gldw.org:40226/vdab</t>
-  </si>
-  <si>
-    <t>Buoy3312</t>
+    <t>Buoy Number</t>
   </si>
   <si>
     <t>Latitude</t>
   </si>
   <si>
     <t>Longitude</t>
-  </si>
-  <si>
-    <t>Buoy3512</t>
-  </si>
-  <si>
-    <t>Buoy3434</t>
-  </si>
-  <si>
-    <t>Buoy5101</t>
-  </si>
-  <si>
-    <t>Buoy2703</t>
-  </si>
-  <si>
-    <t>-83.33219347</t>
-  </si>
-  <si>
-    <t>-81.387926</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,23 +71,316 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -106,22 +388,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -420,234 +892,200 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="29.109375" customWidth="1"/>
+    <col min="1" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1">
+        <v>43621.382824074077</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>41.802495999999998</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D2">
-        <v>193</v>
-      </c>
-      <c r="E2">
-        <v>0.8</v>
-      </c>
-      <c r="F2">
-        <v>7.12</v>
+        <v>-83.332193399999994</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7.1201592397402704</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10.123558504548299</v>
       </c>
       <c r="G2">
-        <v>10.4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>200</v>
+      </c>
+      <c r="H2" s="2">
+        <v>13.033152166389</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1">
+        <v>43621.382824074077</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>41.923237</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3">
         <v>-82.695892000000001</v>
       </c>
-      <c r="D3">
-        <v>193</v>
-      </c>
-      <c r="E3">
-        <v>0.8</v>
-      </c>
-      <c r="F3">
-        <v>7.12</v>
+      <c r="E3" s="2">
+        <v>7.22309180362228</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10.1959048212384</v>
       </c>
       <c r="G3">
-        <v>10.4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>205</v>
+      </c>
+      <c r="H3" s="2">
+        <v>14.5646664594149</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1">
+        <v>43621.382824074077</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>41.911943999999998</v>
       </c>
-      <c r="C4" s="2">
-        <v>-81.871219999999994</v>
-      </c>
       <c r="D4">
-        <v>182</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-      <c r="F4">
-        <v>7.6</v>
+        <v>-81.8712199</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7.2525977159302801</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7.8508686793245301</v>
       </c>
       <c r="G4">
-        <v>11.2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>206</v>
+      </c>
+      <c r="H4" s="2">
+        <v>13.073436711807901</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="1">
+        <v>43621.382824074077</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>41.871273000000002</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D5">
-        <v>181</v>
-      </c>
-      <c r="E5">
-        <v>0.3</v>
-      </c>
-      <c r="F5">
-        <v>7.32</v>
+        <v>-81.387925899999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7.4206333519417802</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10.514397866942399</v>
       </c>
       <c r="G5">
-        <v>10.9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
+        <v>208</v>
+      </c>
+      <c r="H5" s="2">
+        <v>14.1881197483862</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1">
+        <v>43621.382824074077</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>42.355268000000002</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6">
         <v>-80.312467999999996</v>
       </c>
-      <c r="D6">
-        <v>196</v>
-      </c>
-      <c r="E6">
-        <v>0.4</v>
-      </c>
-      <c r="F6">
-        <v>7.41</v>
+      <c r="E6" s="2">
+        <v>7.4389081521409404</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10.5910111702963</v>
       </c>
       <c r="G6">
-        <v>10.8</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>205</v>
+      </c>
+      <c r="H6" s="2">
+        <v>15.145199485352</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="1">
+        <v>43621.382824074077</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>42.755164000000001</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7">
         <v>-79.141233999999997</v>
       </c>
-      <c r="D7">
-        <v>190</v>
-      </c>
-      <c r="E7">
-        <v>0.7</v>
-      </c>
-      <c r="F7">
-        <v>7.05</v>
+      <c r="E7" s="2">
+        <v>6.8590338548350998</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10.6483833321563</v>
       </c>
       <c r="G7">
-        <v>10.3</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
+        <v>209</v>
+      </c>
+      <c r="H7" s="2">
+        <v>12.562785390177901</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H6" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SampleBuoyData.xlsx
+++ b/SampleBuoyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="16260" windowHeight="6624"/>
+    <workbookView xWindow="285" yWindow="90" windowWidth="16260" windowHeight="6630"/>
   </bookViews>
   <sheets>
     <sheet name="buoydata" sheetId="1" r:id="rId1"/>
@@ -49,13 +49,13 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>Buoy Number</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Buoy</t>
   </si>
 </sst>
 </file>
@@ -892,14 +892,14 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="1" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -907,13 +907,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>7</v>
